--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Rarres2-Cmklr1.xlsx
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Rarres2</t>
+  </si>
+  <si>
+    <t>Cmklr1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rarres2</t>
-  </si>
-  <si>
-    <t>Cmklr1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H2">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I2">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J2">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.019373</v>
+        <v>0.7197789999999999</v>
       </c>
       <c r="N2">
-        <v>3.058119</v>
+        <v>2.159337</v>
       </c>
       <c r="O2">
-        <v>0.01009348738795297</v>
+        <v>0.005451515498685473</v>
       </c>
       <c r="P2">
-        <v>0.01010782277194269</v>
+        <v>0.005483800079988005</v>
       </c>
       <c r="Q2">
-        <v>2.070127737596001</v>
+        <v>0.3822359987603334</v>
       </c>
       <c r="R2">
-        <v>18.631149638364</v>
+        <v>3.440123988843</v>
       </c>
       <c r="S2">
-        <v>0.0002794299615631504</v>
+        <v>6.587090379149366E-05</v>
       </c>
       <c r="T2">
-        <v>0.0003270584447987696</v>
+        <v>6.808977717155551E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H3">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I3">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J3">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>55.841416</v>
       </c>
       <c r="O3">
-        <v>0.1843076178923826</v>
+        <v>0.1409786174147634</v>
       </c>
       <c r="P3">
-        <v>0.1845693827684028</v>
+        <v>0.1418135110579976</v>
       </c>
       <c r="Q3">
-        <v>37.80064286845511</v>
+        <v>9.884793071647112</v>
       </c>
       <c r="R3">
-        <v>340.205785816096</v>
+        <v>88.963137644824</v>
       </c>
       <c r="S3">
-        <v>0.005102405997448723</v>
+        <v>0.001703450892990198</v>
       </c>
       <c r="T3">
-        <v>0.005972104640898908</v>
+        <v>0.001760831946279869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +655,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H4">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I4">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J4">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.59874866666667</v>
+        <v>51.381892</v>
       </c>
       <c r="N4">
-        <v>115.796246</v>
+        <v>154.145676</v>
       </c>
       <c r="O4">
-        <v>0.3821917814752467</v>
+        <v>0.3891599790905029</v>
       </c>
       <c r="P4">
-        <v>0.3827345934622813</v>
+        <v>0.3914646349220178</v>
       </c>
       <c r="Q4">
-        <v>78.38577267728624</v>
+        <v>27.28616534632934</v>
       </c>
       <c r="R4">
-        <v>705.4719540955762</v>
+        <v>245.575488116964</v>
       </c>
       <c r="S4">
-        <v>0.0105806675832226</v>
+        <v>0.004702237304168249</v>
       </c>
       <c r="T4">
-        <v>0.01238412897938103</v>
+        <v>0.004860633023376524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,55 +717,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H5">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I5">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J5">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4296995</v>
+        <v>2.3319365</v>
       </c>
       <c r="N5">
-        <v>0.859399</v>
+        <v>4.663873</v>
       </c>
       <c r="O5">
-        <v>0.004254739417131607</v>
+        <v>0.01766179337227171</v>
       </c>
       <c r="P5">
-        <v>0.002840521504357672</v>
+        <v>0.01184425920106676</v>
       </c>
       <c r="Q5">
-        <v>0.8726274423406668</v>
+        <v>1.238366327891167</v>
       </c>
       <c r="R5">
-        <v>5.235764654044001</v>
+        <v>7.430197967347</v>
       </c>
       <c r="S5">
-        <v>0.0001177889886907981</v>
+        <v>0.0002134082334152184</v>
       </c>
       <c r="T5">
-        <v>9.191064847431304E-05</v>
+        <v>0.0001470646190596623</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,25 +779,25 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>2.030785333333334</v>
+        <v>0.5310463333333334</v>
       </c>
       <c r="H6">
-        <v>6.092356000000001</v>
+        <v>1.593139</v>
       </c>
       <c r="I6">
-        <v>0.02768418395178881</v>
+        <v>0.01208304439515528</v>
       </c>
       <c r="J6">
-        <v>0.03235696273846617</v>
+        <v>0.01241653163470256</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.331515</v>
+        <v>58.98541366666666</v>
       </c>
       <c r="N6">
-        <v>126.994545</v>
+        <v>176.956241</v>
       </c>
       <c r="O6">
-        <v>0.4191523738272861</v>
+        <v>0.4467480946237765</v>
       </c>
       <c r="P6">
-        <v>0.4197476794930156</v>
+        <v>0.4493937947389299</v>
       </c>
       <c r="Q6">
-        <v>85.96621979978002</v>
+        <v>31.32398764783322</v>
       </c>
       <c r="R6">
-        <v>773.69597819802</v>
+        <v>281.915888830499</v>
       </c>
       <c r="S6">
-        <v>0.01160389142086353</v>
+        <v>0.005398077060790125</v>
       </c>
       <c r="T6">
-        <v>0.01358176002491314</v>
+        <v>0.005579912268814953</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,40 +856,40 @@
         <v>118.481473</v>
       </c>
       <c r="I7">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J7">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.019373</v>
+        <v>0.7197789999999999</v>
       </c>
       <c r="N7">
-        <v>3.058119</v>
+        <v>2.159337</v>
       </c>
       <c r="O7">
-        <v>0.01009348738795297</v>
+        <v>0.005451515498685473</v>
       </c>
       <c r="P7">
-        <v>0.01010782277194269</v>
+        <v>0.005483800079988005</v>
       </c>
       <c r="Q7">
-        <v>40.25893819214301</v>
+        <v>28.42682538482233</v>
       </c>
       <c r="R7">
-        <v>362.330443729287</v>
+        <v>255.841428463401</v>
       </c>
       <c r="S7">
-        <v>0.005434231592233848</v>
+        <v>0.004898807768222016</v>
       </c>
       <c r="T7">
-        <v>0.006360489488278001</v>
+        <v>0.005063824999279831</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>118.481473</v>
       </c>
       <c r="I8">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J8">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>55.841416</v>
       </c>
       <c r="O8">
-        <v>0.1843076178923826</v>
+        <v>0.1409786174147634</v>
       </c>
       <c r="P8">
-        <v>0.1845693827684028</v>
+        <v>0.1418135110579976</v>
       </c>
       <c r="Q8">
         <v>735.1303580095298</v>
@@ -948,10 +948,10 @@
         <v>6616.173222085768</v>
       </c>
       <c r="S8">
-        <v>0.0992293586293642</v>
+        <v>0.1266853494796399</v>
       </c>
       <c r="T8">
-        <v>0.1161428771995331</v>
+        <v>0.1309527685284811</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>118.481473</v>
       </c>
       <c r="I9">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J9">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>38.59874866666667</v>
+        <v>51.381892</v>
       </c>
       <c r="N9">
-        <v>115.796246</v>
+        <v>154.145676</v>
       </c>
       <c r="O9">
-        <v>0.3821917814752467</v>
+        <v>0.3891599790905029</v>
       </c>
       <c r="P9">
-        <v>0.3827345934622813</v>
+        <v>0.3914646349220178</v>
       </c>
       <c r="Q9">
-        <v>1524.412199327818</v>
+        <v>2029.267416562305</v>
       </c>
       <c r="R9">
-        <v>13719.70979395036</v>
+        <v>18263.40674906075</v>
       </c>
       <c r="S9">
-        <v>0.2057681922368889</v>
+        <v>0.3497045783157673</v>
       </c>
       <c r="T9">
-        <v>0.2408411201346493</v>
+        <v>0.3614844406684501</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,40 +1042,40 @@
         <v>118.481473</v>
       </c>
       <c r="I10">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J10">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4296995</v>
+        <v>2.3319365</v>
       </c>
       <c r="N10">
-        <v>0.859399</v>
+        <v>4.663873</v>
       </c>
       <c r="O10">
-        <v>0.004254739417131607</v>
+        <v>0.01766179337227171</v>
       </c>
       <c r="P10">
-        <v>0.002840521504357672</v>
+        <v>0.01184425920106676</v>
       </c>
       <c r="Q10">
-        <v>16.97047656912117</v>
+        <v>92.09709048748817</v>
       </c>
       <c r="R10">
-        <v>101.822859414727</v>
+        <v>552.582542924929</v>
       </c>
       <c r="S10">
-        <v>0.002290708698451978</v>
+        <v>0.01587113355793995</v>
       </c>
       <c r="T10">
-        <v>0.001787438064292667</v>
+        <v>0.01093717038649651</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>118.481473</v>
       </c>
       <c r="I11">
-        <v>0.5383898927460736</v>
+        <v>0.8986139302737502</v>
       </c>
       <c r="J11">
-        <v>0.6292640494185805</v>
+        <v>0.9234153188332328</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>42.331515</v>
+        <v>58.98541366666666</v>
       </c>
       <c r="N11">
-        <v>126.994545</v>
+        <v>176.956241</v>
       </c>
       <c r="O11">
-        <v>0.4191523738272861</v>
+        <v>0.4467480946237765</v>
       </c>
       <c r="P11">
-        <v>0.4197476794930156</v>
+        <v>0.4493937947389299</v>
       </c>
       <c r="Q11">
-        <v>1671.833417173865</v>
+        <v>2329.559565580332</v>
       </c>
       <c r="R11">
-        <v>15046.50075456479</v>
+        <v>20966.03609022299</v>
       </c>
       <c r="S11">
-        <v>0.2256674015891347</v>
+        <v>0.401454061152181</v>
       </c>
       <c r="T11">
-        <v>0.2641321245318274</v>
+        <v>0.4149771142505253</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3.541247</v>
+      </c>
+      <c r="H12">
+        <v>7.082494000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.08057497440313205</v>
+      </c>
+      <c r="J12">
+        <v>0.0551992078554295</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G12">
-        <v>0.05030299999999999</v>
-      </c>
-      <c r="H12">
-        <v>0.150909</v>
-      </c>
-      <c r="I12">
-        <v>0.0006857433341026847</v>
-      </c>
-      <c r="J12">
-        <v>0.0008014890938578097</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M12">
-        <v>1.019373</v>
+        <v>0.7197789999999999</v>
       </c>
       <c r="N12">
-        <v>3.058119</v>
+        <v>2.159337</v>
       </c>
       <c r="O12">
-        <v>0.01009348738795297</v>
+        <v>0.005451515498685473</v>
       </c>
       <c r="P12">
-        <v>0.01010782277194269</v>
+        <v>0.005483800079988005</v>
       </c>
       <c r="Q12">
-        <v>0.051277520019</v>
+        <v>2.548915224413</v>
       </c>
       <c r="R12">
-        <v>0.461497680171</v>
+        <v>15.293491346478</v>
       </c>
       <c r="S12">
-        <v>6.92154169413827E-06</v>
+        <v>0.0004392557217648596</v>
       </c>
       <c r="T12">
-        <v>8.101309714359684E-06</v>
+        <v>0.0003027014204528788</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H13">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I13">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J13">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>55.841416</v>
       </c>
       <c r="O13">
-        <v>0.1843076178923826</v>
+        <v>0.1409786174147634</v>
       </c>
       <c r="P13">
-        <v>0.1845693827684028</v>
+        <v>0.1418135110579976</v>
       </c>
       <c r="Q13">
-        <v>0.9363302496826664</v>
+        <v>65.91608229525066</v>
       </c>
       <c r="R13">
-        <v>8.426972247143999</v>
+        <v>395.496493771504</v>
       </c>
       <c r="S13">
-        <v>0.0001263877203940461</v>
+        <v>0.01135934848958351</v>
       </c>
       <c r="T13">
-        <v>0.0001479303473489424</v>
+        <v>0.00782799347359866</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,25 +1275,25 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H14">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I14">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J14">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>38.59874866666667</v>
+        <v>51.381892</v>
       </c>
       <c r="N14">
-        <v>115.796246</v>
+        <v>154.145676</v>
       </c>
       <c r="O14">
-        <v>0.3821917814752467</v>
+        <v>0.3891599790905029</v>
       </c>
       <c r="P14">
-        <v>0.3827345934622813</v>
+        <v>0.3914646349220178</v>
       </c>
       <c r="Q14">
-        <v>1.941632854179333</v>
+        <v>181.955970899324</v>
       </c>
       <c r="R14">
-        <v>17.474695687614</v>
+        <v>1091.735825395944</v>
       </c>
       <c r="S14">
-        <v>0.0002620854664954803</v>
+        <v>0.03135655535394068</v>
       </c>
       <c r="T14">
-        <v>0.000306757602502121</v>
+        <v>0.02160853775111029</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,55 +1337,55 @@
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H15">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I15">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J15">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4296995</v>
+        <v>2.3319365</v>
       </c>
       <c r="N15">
-        <v>0.859399</v>
+        <v>4.663873</v>
       </c>
       <c r="O15">
-        <v>0.004254739417131607</v>
+        <v>0.01766179337227171</v>
       </c>
       <c r="P15">
-        <v>0.002840521504357672</v>
+        <v>0.01184425920106676</v>
       </c>
       <c r="Q15">
-        <v>0.0216151739485</v>
+        <v>8.257963134815499</v>
       </c>
       <c r="R15">
-        <v>0.129691043691</v>
+        <v>33.031852539262</v>
       </c>
       <c r="S15">
-        <v>2.917659193641942E-06</v>
+        <v>0.0014230985488842</v>
       </c>
       <c r="T15">
-        <v>2.276647006611253E-06</v>
+        <v>0.0006537937255332674</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,25 +1399,25 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05030299999999999</v>
+        <v>3.541247</v>
       </c>
       <c r="H16">
-        <v>0.150909</v>
+        <v>7.082494000000001</v>
       </c>
       <c r="I16">
-        <v>0.0006857433341026847</v>
+        <v>0.08057497440313205</v>
       </c>
       <c r="J16">
-        <v>0.0008014890938578097</v>
+        <v>0.0551992078554295</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>42.331515</v>
+        <v>58.98541366666666</v>
       </c>
       <c r="N16">
-        <v>126.994545</v>
+        <v>176.956241</v>
       </c>
       <c r="O16">
-        <v>0.4191523738272861</v>
+        <v>0.4467480946237765</v>
       </c>
       <c r="P16">
-        <v>0.4197476794930156</v>
+        <v>0.4493937947389299</v>
       </c>
       <c r="Q16">
-        <v>2.129402199045</v>
+        <v>208.8819191908423</v>
       </c>
       <c r="R16">
-        <v>19.164619791405</v>
+        <v>1253.291515145054</v>
       </c>
       <c r="S16">
-        <v>0.0002874309463253781</v>
+        <v>0.0359967162889588</v>
       </c>
       <c r="T16">
-        <v>0.0003364231872857754</v>
+        <v>0.02480618148473441</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H17">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I17">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J17">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>1.019373</v>
+        <v>0.7197789999999999</v>
       </c>
       <c r="N17">
-        <v>3.058119</v>
+        <v>2.159337</v>
       </c>
       <c r="O17">
-        <v>0.01009348738795297</v>
+        <v>0.005451515498685473</v>
       </c>
       <c r="P17">
-        <v>0.01010782277194269</v>
+        <v>0.005483800079988005</v>
       </c>
       <c r="Q17">
-        <v>32.39620554301951</v>
+        <v>0.2761038654313333</v>
       </c>
       <c r="R17">
-        <v>194.377233258117</v>
+        <v>2.484934788882</v>
       </c>
       <c r="S17">
-        <v>0.004372904292461836</v>
+        <v>4.758110490710341E-05</v>
       </c>
       <c r="T17">
-        <v>0.003412173529151566</v>
+        <v>4.918388308373951E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H18">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I18">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J18">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>55.841416</v>
       </c>
       <c r="O18">
-        <v>0.1843076178923826</v>
+        <v>0.1409786174147634</v>
       </c>
       <c r="P18">
-        <v>0.1845693827684028</v>
+        <v>0.1418135110579976</v>
       </c>
       <c r="Q18">
-        <v>591.5564405928146</v>
+        <v>7.140168861441778</v>
       </c>
       <c r="R18">
-        <v>3549.338643556888</v>
+        <v>64.261519752976</v>
       </c>
       <c r="S18">
-        <v>0.07984946554517564</v>
+        <v>0.001230468552549789</v>
       </c>
       <c r="T18">
-        <v>0.06230647058062184</v>
+        <v>0.001271917109638033</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1585,25 +1585,25 @@
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H19">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I19">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J19">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>38.59874866666667</v>
+        <v>51.381892</v>
       </c>
       <c r="N19">
-        <v>115.796246</v>
+        <v>154.145676</v>
       </c>
       <c r="O19">
-        <v>0.3821917814752467</v>
+        <v>0.3891599790905029</v>
       </c>
       <c r="P19">
-        <v>0.3827345934622813</v>
+        <v>0.3914646349220178</v>
       </c>
       <c r="Q19">
-        <v>1226.688361874096</v>
+        <v>19.70985398903733</v>
       </c>
       <c r="R19">
-        <v>7360.130171244578</v>
+        <v>177.388685901336</v>
       </c>
       <c r="S19">
-        <v>0.1655808361886397</v>
+        <v>0.003396608116626712</v>
       </c>
       <c r="T19">
-        <v>0.1292025867457489</v>
+        <v>0.003511023479080844</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,55 +1647,55 @@
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.3835953333333333</v>
+      </c>
+      <c r="H20">
+        <v>1.150786</v>
+      </c>
+      <c r="I20">
+        <v>0.008728050927962449</v>
+      </c>
+      <c r="J20">
+        <v>0.008968941676635136</v>
+      </c>
+      <c r="K20">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>31.7805215</v>
-      </c>
-      <c r="H20">
-        <v>63.561043</v>
-      </c>
-      <c r="I20">
-        <v>0.4332401799680348</v>
-      </c>
-      <c r="J20">
-        <v>0.3375774987490957</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4296995</v>
+        <v>2.3319365</v>
       </c>
       <c r="N20">
-        <v>0.859399</v>
+        <v>4.663873</v>
       </c>
       <c r="O20">
-        <v>0.004254739417131607</v>
+        <v>0.01766179337227171</v>
       </c>
       <c r="P20">
-        <v>0.002840521504357672</v>
+        <v>0.01184425920106676</v>
       </c>
       <c r="Q20">
-        <v>13.65607419828925</v>
+        <v>0.8945199590296666</v>
       </c>
       <c r="R20">
-        <v>54.624296793157</v>
+        <v>5.367119754178</v>
       </c>
       <c r="S20">
-        <v>0.001843324070795189</v>
+        <v>0.0001541530320323371</v>
       </c>
       <c r="T20">
-        <v>0.0009588961445840812</v>
+        <v>0.0001062304699773168</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,25 +1709,25 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>31.7805215</v>
+        <v>0.3835953333333333</v>
       </c>
       <c r="H21">
-        <v>63.561043</v>
+        <v>1.150786</v>
       </c>
       <c r="I21">
-        <v>0.4332401799680348</v>
+        <v>0.008728050927962449</v>
       </c>
       <c r="J21">
-        <v>0.3375774987490957</v>
+        <v>0.008968941676635136</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>42.331515</v>
+        <v>58.98541366666666</v>
       </c>
       <c r="N21">
-        <v>126.994545</v>
+        <v>176.956241</v>
       </c>
       <c r="O21">
-        <v>0.4191523738272861</v>
+        <v>0.4467480946237765</v>
       </c>
       <c r="P21">
-        <v>0.4197476794930156</v>
+        <v>0.4493937947389299</v>
       </c>
       <c r="Q21">
-        <v>1345.317622585073</v>
+        <v>22.62652941726955</v>
       </c>
       <c r="R21">
-        <v>8071.905735510435</v>
+        <v>203.638764755426</v>
       </c>
       <c r="S21">
-        <v>0.1815936498709624</v>
+        <v>0.003899240121846508</v>
       </c>
       <c r="T21">
-        <v>0.1416973717489892</v>
+        <v>0.004030586734855204</v>
       </c>
     </row>
   </sheetData>
